--- a/assignment2/ass2Q2.xlsx
+++ b/assignment2/ass2Q2.xlsx
@@ -90,6 +90,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>velocity-time</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -123,90 +149,34 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$1:$F$7</c:f>
+              <c:f>Sheet1!$B$1:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FABD-4F3E-9AF7-60B3C3D27401}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>2</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$1:$B$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
@@ -220,10 +190,21 @@
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-FABD-4F3E-9AF7-60B3C3D27401}"/>
@@ -238,10 +219,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
+        <c:gapWidth val="0"/>
+        <c:overlap val="100"/>
         <c:axId val="417333304"/>
         <c:axId val="417330352"/>
-      </c:lineChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="417333304"/>
         <c:scaling>
@@ -263,6 +245,63 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>M(steps)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -305,15 +344,14 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:tickLblSkip val="1"/>
-        <c:tickMarkSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="417330352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="4"/>
+          <c:max val="5"/>
+          <c:min val="-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -331,6 +369,63 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>k</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -370,7 +465,7 @@
         </c:txPr>
         <c:crossAx val="417333304"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
         <c:minorUnit val="1"/>
       </c:valAx>
@@ -1273,10 +1368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B1:B6"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1286,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1">
         <v>0</v>
@@ -1303,7 +1398,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1341,7 +1436,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C7" si="0">B4+C3</f>
+        <f>B4+C3</f>
         <v>6</v>
       </c>
       <c r="E4">
@@ -1359,7 +1454,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
+        <f>B5+C4</f>
         <v>7</v>
       </c>
       <c r="E5">
@@ -1377,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
+        <f>B6+C5</f>
         <v>7</v>
       </c>
       <c r="E6">
@@ -1392,16 +1487,40 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>B7+C6</f>
+        <v>6</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
         <v>0</v>
       </c>
     </row>
